--- a/testing_03112024/nonoptimz/test_evaluation_results.xlsx
+++ b/testing_03112024/nonoptimz/test_evaluation_results.xlsx
@@ -490,25 +490,25 @@
         <v>0.2</v>
       </c>
       <c r="C2" t="n">
-        <v>642</v>
+        <v>612</v>
       </c>
       <c r="D2" t="n">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="E2" t="n">
         <v>653</v>
       </c>
       <c r="F2" t="n">
-        <v>0.4762633996937213</v>
+        <v>0.4609494640122512</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4650999699446122</v>
+        <v>0.4143338730928071</v>
       </c>
       <c r="H2" t="n">
-        <v>0.4762633996937213</v>
+        <v>0.4609494640122512</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3213452425669623</v>
+        <v>0.3367886092724334</v>
       </c>
     </row>
     <row r="3">
@@ -707,25 +707,25 @@
         <v>0.25</v>
       </c>
       <c r="C9" t="n">
-        <v>632</v>
+        <v>639</v>
       </c>
       <c r="D9" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E9" t="n">
         <v>653</v>
       </c>
       <c r="F9" t="n">
-        <v>0.4701378254211332</v>
+        <v>0.4686064318529862</v>
       </c>
       <c r="G9" t="n">
-        <v>0.4249806383483473</v>
+        <v>0.3750137373500831</v>
       </c>
       <c r="H9" t="n">
-        <v>0.4701378254211332</v>
+        <v>0.4686064318529862</v>
       </c>
       <c r="I9" t="n">
-        <v>0.3257517473216387</v>
+        <v>0.3152254758788333</v>
       </c>
     </row>
     <row r="10">
@@ -924,25 +924,25 @@
         <v>0.3</v>
       </c>
       <c r="C16" t="n">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="D16" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E16" t="n">
         <v>653</v>
       </c>
       <c r="F16" t="n">
-        <v>0.4732006125574272</v>
+        <v>0.4777947932618683</v>
       </c>
       <c r="G16" t="n">
-        <v>0.4467153603885463</v>
+        <v>0.4890205633878017</v>
       </c>
       <c r="H16" t="n">
-        <v>0.4732006125574272</v>
+        <v>0.4777947932618683</v>
       </c>
       <c r="I16" t="n">
-        <v>0.3272603523752069</v>
+        <v>0.3366673216635622</v>
       </c>
     </row>
     <row r="17">
@@ -1141,25 +1141,25 @@
         <v>0.35</v>
       </c>
       <c r="C23" t="n">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="D23" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E23" t="n">
         <v>653</v>
       </c>
       <c r="F23" t="n">
-        <v>0.4716692189892803</v>
+        <v>0.4732006125574272</v>
       </c>
       <c r="G23" t="n">
-        <v>0.4525320433247546</v>
+        <v>0.4587765921301483</v>
       </c>
       <c r="H23" t="n">
-        <v>0.4716692189892803</v>
+        <v>0.4732006125574272</v>
       </c>
       <c r="I23" t="n">
-        <v>0.3380927710131437</v>
+        <v>0.3366262719673772</v>
       </c>
     </row>
     <row r="24">
